--- a/xtt_demo/ZXXT_DEMO_030_B_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_B_R.XLSX
@@ -13,12 +13,12 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId556" sheetId="556" name="First sheet"/>
-    <sheet r:id="rId557" sheetId="557" name="Merged cells {R-TITLE}" state="veryHidden"/>
-    <sheet r:id="rId558" sheetId="558" name="Merged cells Title 1"/>
-    <sheet r:id="rId559" sheetId="559" name="Merged cells Title 2"/>
-    <sheet r:id="rId560" sheetId="560" name="Merged cells Title 3"/>
-    <sheet r:id="rId561" sheetId="561" name="Last sheet"/>
+    <sheet r:id="rId1" sheetId="1" name="First sheet"/>
+    <sheet r:id="rId2" sheetId="2" name="Merged cells {R-TITLE}" state="veryHidden"/>
+    <sheet r:id="rId556" sheetId="556" name="Merged cells Title 1"/>
+    <sheet r:id="rId557" sheetId="557" name="Merged cells Title 2"/>
+    <sheet r:id="rId558" sheetId="558" name="Merged cells Title 3"/>
+    <sheet r:id="rId3" sheetId="3" name="Last sheet"/>
   </sheets>
   <definedNames>
     <definedName name="E_" localSheetId="1">'Merged cells {R-TITLE}'!$G$6</definedName>
@@ -1233,12 +1233,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="31.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1256,123 +1256,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="33.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="20.7109375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="40.28515625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="35.42578125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="12.5703125"/>
+    <col customWidth="1" max="5" min="5" style="17" width="12.5703125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="14.85546875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="33.42578125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="33.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="16"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="20" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="e">
         <f>AVERAGE(E_)</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1391,12 +1389,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="34.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1405,25 +1403,544 @@
 </file>
 
 <file path=xl/worksheets/sheet556.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="31.28515625"/>
+    <col customWidth="1" max="1" min="1" style="1" width="20.7109375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="40.28515625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="35.42578125"/>
+    <col customWidth="1" max="4" min="4" style="1" width="12.5703125"/>
+    <col customWidth="1" max="5" min="5" style="17" width="12.5703125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="14.85546875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="33.42578125"/>
+    <col customWidth="1" max="8" min="8" style="1" width="33.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="15">
-      <c r="A1" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="s"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="1">
+      <c r="A5" s="1" t="s"/>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F5" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5971.44</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5021.46</v>
+      </c>
+    </row>
+    <row r="6" outlineLevel="1">
+      <c r="A6" s="1" t="s"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F6" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9476.79</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3683.27</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="1">
+      <c r="A7" s="1" t="s"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F7" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4604.00</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5525.85</v>
+      </c>
+    </row>
+    <row r="8" outlineLevel="1">
+      <c r="A8" s="1" t="s"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F8" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5476.81</v>
+      </c>
+      <c r="H8" s="4">
+        <v>406.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s"/>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
+        <v>25529.04</v>
+      </c>
+      <c r="H9" s="8">
+        <v>14636.76</v>
+      </c>
+    </row>
+    <row r="10" outlineLevel="1">
+      <c r="A10" s="1" t="s"/>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F10" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5451.87</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4061.85</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="1">
+      <c r="A11" s="1" t="s"/>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F11" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1196.35</v>
+      </c>
+      <c r="H11" s="4">
+        <v>522.46</v>
+      </c>
+    </row>
+    <row r="12" outlineLevel="1">
+      <c r="A12" s="1" t="s"/>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F12" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7686.95</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2727.98</v>
+      </c>
+    </row>
+    <row r="13" outlineLevel="1">
+      <c r="A13" s="1" t="s"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F13" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2276.75</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7717.20</v>
+      </c>
+    </row>
+    <row r="14" outlineLevel="1">
+      <c r="A14" s="1" t="s"/>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F14" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2159.71</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2260.94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8">
+        <v>18771.63</v>
+      </c>
+      <c r="H15" s="8">
+        <v>17290.43</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="1">
+      <c r="A16" s="1" t="s"/>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F16" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4573.55</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5436.00</v>
+      </c>
+    </row>
+    <row r="17" outlineLevel="1">
+      <c r="A17" s="1" t="s"/>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F17" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G17" s="4">
+        <v>978.18</v>
+      </c>
+      <c r="H17" s="4">
+        <v>295.55</v>
+      </c>
+    </row>
+    <row r="18" outlineLevel="1">
+      <c r="A18" s="1" t="s"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F18" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G18" s="4">
+        <v>71.12</v>
+      </c>
+      <c r="H18" s="4">
+        <v>8878.56</v>
+      </c>
+    </row>
+    <row r="19" outlineLevel="1">
+      <c r="A19" s="1" t="s"/>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F19" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G19" s="4">
+        <v>689.66</v>
+      </c>
+      <c r="H19" s="4">
+        <v>518.60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s"/>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8">
+        <v>6312.51</v>
+      </c>
+      <c r="H20" s="8">
+        <v>15128.71</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="1">
+      <c r="A21" s="1" t="s"/>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F21" s="23">
+        <v>44124.000000000000</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3031.38</v>
+      </c>
+      <c r="H21" s="4">
+        <v>445.22</v>
+      </c>
+    </row>
+    <row r="22" outlineLevel="1">
+      <c r="A22" s="1" t="s"/>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F22" s="23">
+        <v>44124.000000000000</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2490.30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>6388.81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s"/>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
+        <v>5521.68</v>
+      </c>
+      <c r="H23" s="8">
+        <v>6834.03</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s"/>
+      <c r="B24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="20">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12" t="e">
+        <f>AVERAGE(E_1,E_2,E_3,E_4)</f>
+      </c>
+      <c r="H24" s="12">
+        <v>13472.48</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E24"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F21:F22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1448,9 +1965,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A1" s="1" t="s"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="16"/>
@@ -1458,7 +1973,7 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1485,76 +2000,487 @@
       </c>
     </row>
     <row r="5" outlineLevel="1">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A5" s="1" t="s"/>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F5" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5971.44</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5021.46</v>
+      </c>
+    </row>
+    <row r="6" outlineLevel="1">
+      <c r="A6" s="1" t="s"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F6" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9476.79</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3683.27</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="1">
+      <c r="A7" s="1" t="s"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F7" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4604.00</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5525.85</v>
+      </c>
+    </row>
+    <row r="8" outlineLevel="1">
+      <c r="A8" s="1" t="s"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F8" s="23">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5476.81</v>
+      </c>
+      <c r="H8" s="4">
+        <v>406.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s"/>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
+        <v>25529.04</v>
+      </c>
+      <c r="H9" s="8">
+        <v>14636.76</v>
+      </c>
+    </row>
+    <row r="10" outlineLevel="1">
+      <c r="A10" s="1" t="s"/>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F10" s="23">
+        <v>44124.000000000000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3031.38</v>
+      </c>
+      <c r="H10" s="4">
+        <v>445.22</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="1">
+      <c r="A11" s="1" t="s"/>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F11" s="23">
+        <v>44124.000000000000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2490.30</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6388.81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s"/>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
+        <v>5521.68</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6834.03</v>
+      </c>
+    </row>
+    <row r="13" outlineLevel="1">
+      <c r="A13" s="1" t="s"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F13" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2276.75</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7717.20</v>
+      </c>
+    </row>
+    <row r="14" outlineLevel="1">
+      <c r="A14" s="1" t="s"/>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F14" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2159.71</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2260.94</v>
+      </c>
+    </row>
+    <row r="15" outlineLevel="1">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F15" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5451.87</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4061.85</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="1">
+      <c r="A16" s="1" t="s"/>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F16" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1196.35</v>
+      </c>
+      <c r="H16" s="4">
+        <v>522.46</v>
+      </c>
+    </row>
+    <row r="17" outlineLevel="1">
+      <c r="A17" s="1" t="s"/>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F17" s="23">
+        <v>44123.000000000000</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7686.95</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2727.98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s"/>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
+        <v>18771.63</v>
+      </c>
+      <c r="H18" s="8">
+        <v>17290.43</v>
+      </c>
+    </row>
+    <row r="19" outlineLevel="1">
+      <c r="A19" s="1" t="s"/>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F19" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G19" s="4">
+        <v>689.66</v>
+      </c>
+      <c r="H19" s="4">
+        <v>518.60</v>
+      </c>
+    </row>
+    <row r="20" outlineLevel="1">
+      <c r="A20" s="1" t="s"/>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F20" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4573.55</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5436.00</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="1">
+      <c r="A21" s="1" t="s"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F21" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G21" s="4">
+        <v>978.18</v>
+      </c>
+      <c r="H21" s="4">
+        <v>295.55</v>
+      </c>
+    </row>
+    <row r="22" outlineLevel="1">
+      <c r="A22" s="1" t="s"/>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="22">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F22" s="23">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="G22" s="4">
+        <v>71.12</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8878.56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s"/>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="19">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
+        <v>6312.51</v>
+      </c>
+      <c r="H23" s="8">
+        <v>15128.71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s"/>
+      <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="e">
-        <f>AVERAGE(E_)</f>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>48</v>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="20">
+        <v>44125.000000000000</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12" t="e">
+        <f>AVERAGE(E_1,E_2,E_3,E_4)</f>
+      </c>
+      <c r="H24" s="12">
+        <v>13472.48</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E24"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="F19:F22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1589,1090 +2515,6 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="1">
-      <c r="A5" s="1" t="s"/>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F5" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5971.44</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5021.46</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="1">
-      <c r="A6" s="1" t="s"/>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F6" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G6" s="4">
-        <v>9476.79</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3683.27</v>
-      </c>
-    </row>
-    <row r="7" outlineLevel="1">
-      <c r="A7" s="1" t="s"/>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F7" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4604.00</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5525.85</v>
-      </c>
-    </row>
-    <row r="8" outlineLevel="1">
-      <c r="A8" s="1" t="s"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F8" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5476.81</v>
-      </c>
-      <c r="H8" s="4">
-        <v>406.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s"/>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
-        <v>25529.04</v>
-      </c>
-      <c r="H9" s="8">
-        <v>14636.76</v>
-      </c>
-    </row>
-    <row r="10" outlineLevel="1">
-      <c r="A10" s="1" t="s"/>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F10" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>5451.87</v>
-      </c>
-      <c r="H10" s="4">
-        <v>4061.85</v>
-      </c>
-    </row>
-    <row r="11" outlineLevel="1">
-      <c r="A11" s="1" t="s"/>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F11" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1196.35</v>
-      </c>
-      <c r="H11" s="4">
-        <v>522.46</v>
-      </c>
-    </row>
-    <row r="12" outlineLevel="1">
-      <c r="A12" s="1" t="s"/>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F12" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G12" s="4">
-        <v>7686.95</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2727.98</v>
-      </c>
-    </row>
-    <row r="13" outlineLevel="1">
-      <c r="A13" s="1" t="s"/>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F13" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2276.75</v>
-      </c>
-      <c r="H13" s="4">
-        <v>7717.20</v>
-      </c>
-    </row>
-    <row r="14" outlineLevel="1">
-      <c r="A14" s="1" t="s"/>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F14" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2159.71</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2260.94</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s"/>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
-        <v>18771.63</v>
-      </c>
-      <c r="H15" s="8">
-        <v>17290.43</v>
-      </c>
-    </row>
-    <row r="16" outlineLevel="1">
-      <c r="A16" s="1" t="s"/>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F16" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4573.55</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5436.00</v>
-      </c>
-    </row>
-    <row r="17" outlineLevel="1">
-      <c r="A17" s="1" t="s"/>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F17" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G17" s="4">
-        <v>978.18</v>
-      </c>
-      <c r="H17" s="4">
-        <v>295.55</v>
-      </c>
-    </row>
-    <row r="18" outlineLevel="1">
-      <c r="A18" s="1" t="s"/>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F18" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G18" s="4">
-        <v>71.12</v>
-      </c>
-      <c r="H18" s="4">
-        <v>8878.56</v>
-      </c>
-    </row>
-    <row r="19" outlineLevel="1">
-      <c r="A19" s="1" t="s"/>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F19" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G19" s="4">
-        <v>689.66</v>
-      </c>
-      <c r="H19" s="4">
-        <v>518.60</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s"/>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8">
-        <v>6312.51</v>
-      </c>
-      <c r="H20" s="8">
-        <v>15128.71</v>
-      </c>
-    </row>
-    <row r="21" outlineLevel="1">
-      <c r="A21" s="1" t="s"/>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F21" s="23">
-        <v>44124.000000000000</v>
-      </c>
-      <c r="G21" s="4">
-        <v>3031.38</v>
-      </c>
-      <c r="H21" s="4">
-        <v>445.22</v>
-      </c>
-    </row>
-    <row r="22" outlineLevel="1">
-      <c r="A22" s="1" t="s"/>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F22" s="23">
-        <v>44124.000000000000</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2490.30</v>
-      </c>
-      <c r="H22" s="4">
-        <v>6388.81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s"/>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8">
-        <v>5521.68</v>
-      </c>
-      <c r="H23" s="8">
-        <v>6834.03</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s"/>
-      <c r="B24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="20">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12" t="e">
-        <f>AVERAGE(E_1,E_2,E_3,E_4)</f>
-      </c>
-      <c r="H24" s="12">
-        <v>13472.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E24"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="F21:F22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet559.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="20.7109375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="40.28515625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="35.42578125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.5703125"/>
-    <col customWidth="1" max="5" min="5" style="17" width="12.5703125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="14.85546875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="33.42578125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="33.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" outlineLevel="1">
-      <c r="A5" s="1" t="s"/>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F5" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5971.44</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5021.46</v>
-      </c>
-    </row>
-    <row r="6" outlineLevel="1">
-      <c r="A6" s="1" t="s"/>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F6" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G6" s="4">
-        <v>9476.79</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3683.27</v>
-      </c>
-    </row>
-    <row r="7" outlineLevel="1">
-      <c r="A7" s="1" t="s"/>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F7" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4604.00</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5525.85</v>
-      </c>
-    </row>
-    <row r="8" outlineLevel="1">
-      <c r="A8" s="1" t="s"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F8" s="23">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5476.81</v>
-      </c>
-      <c r="H8" s="4">
-        <v>406.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s"/>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
-        <v>25529.04</v>
-      </c>
-      <c r="H9" s="8">
-        <v>14636.76</v>
-      </c>
-    </row>
-    <row r="10" outlineLevel="1">
-      <c r="A10" s="1" t="s"/>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F10" s="23">
-        <v>44124.000000000000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3031.38</v>
-      </c>
-      <c r="H10" s="4">
-        <v>445.22</v>
-      </c>
-    </row>
-    <row r="11" outlineLevel="1">
-      <c r="A11" s="1" t="s"/>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F11" s="23">
-        <v>44124.000000000000</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2490.30</v>
-      </c>
-      <c r="H11" s="4">
-        <v>6388.81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s"/>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
-        <v>5521.68</v>
-      </c>
-      <c r="H12" s="8">
-        <v>6834.03</v>
-      </c>
-    </row>
-    <row r="13" outlineLevel="1">
-      <c r="A13" s="1" t="s"/>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F13" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2276.75</v>
-      </c>
-      <c r="H13" s="4">
-        <v>7717.20</v>
-      </c>
-    </row>
-    <row r="14" outlineLevel="1">
-      <c r="A14" s="1" t="s"/>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F14" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G14" s="4">
-        <v>2159.71</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2260.94</v>
-      </c>
-    </row>
-    <row r="15" outlineLevel="1">
-      <c r="A15" s="1" t="s"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F15" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5451.87</v>
-      </c>
-      <c r="H15" s="4">
-        <v>4061.85</v>
-      </c>
-    </row>
-    <row r="16" outlineLevel="1">
-      <c r="A16" s="1" t="s"/>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F16" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1196.35</v>
-      </c>
-      <c r="H16" s="4">
-        <v>522.46</v>
-      </c>
-    </row>
-    <row r="17" outlineLevel="1">
-      <c r="A17" s="1" t="s"/>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F17" s="23">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7686.95</v>
-      </c>
-      <c r="H17" s="4">
-        <v>2727.98</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s"/>
-      <c r="B18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
-        <v>18771.63</v>
-      </c>
-      <c r="H18" s="8">
-        <v>17290.43</v>
-      </c>
-    </row>
-    <row r="19" outlineLevel="1">
-      <c r="A19" s="1" t="s"/>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F19" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G19" s="4">
-        <v>689.66</v>
-      </c>
-      <c r="H19" s="4">
-        <v>518.60</v>
-      </c>
-    </row>
-    <row r="20" outlineLevel="1">
-      <c r="A20" s="1" t="s"/>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F20" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4573.55</v>
-      </c>
-      <c r="H20" s="4">
-        <v>5436.00</v>
-      </c>
-    </row>
-    <row r="21" outlineLevel="1">
-      <c r="A21" s="1" t="s"/>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F21" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G21" s="4">
-        <v>978.18</v>
-      </c>
-      <c r="H21" s="4">
-        <v>295.55</v>
-      </c>
-    </row>
-    <row r="22" outlineLevel="1">
-      <c r="A22" s="1" t="s"/>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="22">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F22" s="23">
-        <v>44122.000000000000</v>
-      </c>
-      <c r="G22" s="4">
-        <v>71.12</v>
-      </c>
-      <c r="H22" s="4">
-        <v>8878.56</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s"/>
-      <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="19">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8">
-        <v>6312.51</v>
-      </c>
-      <c r="H23" s="8">
-        <v>15128.71</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s"/>
-      <c r="B24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="20">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12" t="e">
-        <f>AVERAGE(E_1,E_2,E_3,E_4)</f>
-      </c>
-      <c r="H24" s="12">
-        <v>13472.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E24"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="F19:F22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet560.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="20.7109375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="40.28515625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="35.42578125"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.5703125"/>
-    <col customWidth="1" max="5" min="5" style="17" width="12.5703125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="14.85546875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="33.42578125"/>
-    <col customWidth="1" max="8" min="8" style="1" width="33.42578125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3184,27 +3026,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet561.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="34.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" ht="15">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xtt_demo/ZXXT_DEMO_030_B_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_B_R.XLSX
@@ -962,6 +962,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing5561.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
+<file path=xl/drawings/drawing5571.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
+<file path=xl/drawings/drawing5581.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>

--- a/xtt_demo/ZXXT_DEMO_030_B_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_B_R.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modekz\AppData\Local\SAP\SAP GUI\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC68AA1B-6FEC-43F2-A55B-C2BDFA31E32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7623399-DC3D-4432-9D41-EF1A50609873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>&lt;Caption 1 /&gt;</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>&lt;Caption 9 /&gt;</t>
+  </si>
+  <si>
+    <t>1)Create 1st sheet like this</t>
+  </si>
+  <si>
+    <t>2)or call macro like in example 070 to save file with a new name (so the entire file would be recreated)</t>
   </si>
   <si>
     <r>
@@ -156,12 +162,18 @@
     <t>Group</t>
   </si>
   <si>
+    <t>If you have problems with printing the document:</t>
+  </si>
+  <si>
     <t>Merge 2</t>
   </si>
   <si>
     <t>Merge 3</t>
   </si>
   <si>
+    <t>Multi sheet issues with print preview</t>
+  </si>
+  <si>
     <t>SUM 1</t>
   </si>
   <si>
@@ -205,6 +217,9 @@
   </si>
   <si>
     <t>_{R-T-GROUP;merge=X}_</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/office/vba/api/excel.workbook.saveas</t>
   </si>
   <si>
     <t>{R-T-CAPTION}</t>
@@ -256,7 +271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -430,6 +445,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -795,7 +825,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -839,8 +869,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
@@ -903,51 +934,54 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1250,10 +1284,38 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="15">
+      <c r="A7" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="15">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="15">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="11" customHeight="1" ht="15">
+      <c r="A11" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{C7CD4EE4-3A82-4056-8B7E-D36C30704CE7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1280,7 +1342,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -1289,100 +1351,100 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" outlineLevel="1">
       <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="12" t="e">
         <f>AVERAGE(E_)</f>
       </c>
       <c r="H7" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1468,7 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1443,30 +1505,30 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" outlineLevel="1">
@@ -1475,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="22">
         <v>44125.000000000000</v>
@@ -1499,10 +1561,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="22">
         <v>44125.000000000000</v>
@@ -1523,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" s="22">
         <v>44125.000000000000</v>
@@ -1547,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" s="22">
         <v>44125.000000000000</v>
@@ -1568,13 +1630,13 @@
     <row r="9">
       <c r="A9" s="1" t="s"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" s="19">
         <v>44125.000000000000</v>
@@ -1593,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E10" s="22">
         <v>44125.000000000000</v>
@@ -1617,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="22">
         <v>44125.000000000000</v>
@@ -1641,10 +1703,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" s="22">
         <v>44125.000000000000</v>
@@ -1665,10 +1727,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E13" s="22">
         <v>44125.000000000000</v>
@@ -1689,10 +1751,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" s="22">
         <v>44125.000000000000</v>
@@ -1710,13 +1772,13 @@
     <row r="15">
       <c r="A15" s="1" t="s"/>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" s="19">
         <v>44125.000000000000</v>
@@ -1735,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E16" s="22">
         <v>44125.000000000000</v>
@@ -1759,10 +1821,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" s="22">
         <v>44125.000000000000</v>
@@ -1783,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18" s="22">
         <v>44125.000000000000</v>
@@ -1807,10 +1869,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E19" s="22">
         <v>44125.000000000000</v>
@@ -1828,13 +1890,13 @@
     <row r="20">
       <c r="A20" s="1" t="s"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E20" s="19">
         <v>44125.000000000000</v>
@@ -1853,10 +1915,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E21" s="22">
         <v>44125.000000000000</v>
@@ -1877,10 +1939,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E22" s="22">
         <v>44125.000000000000</v>
@@ -1898,13 +1960,13 @@
     <row r="23">
       <c r="A23" s="1" t="s"/>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E23" s="19">
         <v>44125.000000000000</v>
@@ -1920,7 +1982,7 @@
     <row r="24">
       <c r="A24" s="1" t="s"/>
       <c r="B24" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1985,30 +2047,30 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" outlineLevel="1">
@@ -2017,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="22">
         <v>44125.000000000000</v>
@@ -2041,10 +2103,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="22">
         <v>44125.000000000000</v>
@@ -2065,10 +2127,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E7" s="22">
         <v>44125.000000000000</v>
@@ -2089,10 +2151,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E8" s="22">
         <v>44125.000000000000</v>
@@ -2110,13 +2172,13 @@
     <row r="9">
       <c r="A9" s="1" t="s"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" s="19">
         <v>44125.000000000000</v>
@@ -2135,10 +2197,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E10" s="22">
         <v>44125.000000000000</v>
@@ -2159,10 +2221,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="22">
         <v>44125.000000000000</v>
@@ -2180,13 +2242,13 @@
     <row r="12">
       <c r="A12" s="1" t="s"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12" s="19">
         <v>44125.000000000000</v>
@@ -2205,10 +2267,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E13" s="22">
         <v>44125.000000000000</v>
@@ -2229,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" s="22">
         <v>44125.000000000000</v>
@@ -2253,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" s="22">
         <v>44125.000000000000</v>
@@ -2277,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" s="22">
         <v>44125.000000000000</v>
@@ -2301,10 +2363,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E17" s="22">
         <v>44125.000000000000</v>
@@ -2322,13 +2384,13 @@
     <row r="18">
       <c r="A18" s="1" t="s"/>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E18" s="19">
         <v>44125.000000000000</v>
@@ -2347,10 +2409,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E19" s="22">
         <v>44125.000000000000</v>
@@ -2371,10 +2433,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E20" s="22">
         <v>44125.000000000000</v>
@@ -2395,10 +2457,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E21" s="22">
         <v>44125.000000000000</v>
@@ -2419,10 +2481,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E22" s="22">
         <v>44125.000000000000</v>
@@ -2440,13 +2502,13 @@
     <row r="23">
       <c r="A23" s="1" t="s"/>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E23" s="19">
         <v>44125.000000000000</v>
@@ -2462,7 +2524,7 @@
     <row r="24">
       <c r="A24" s="1" t="s"/>
       <c r="B24" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -2527,30 +2589,30 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" outlineLevel="1">
@@ -2559,10 +2621,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" s="22">
         <v>44125.000000000000</v>
@@ -2583,10 +2645,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="22">
         <v>44125.000000000000</v>
@@ -2607,10 +2669,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="22">
         <v>44125.000000000000</v>
@@ -2631,10 +2693,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="22">
         <v>44125.000000000000</v>
@@ -2652,13 +2714,13 @@
     <row r="9">
       <c r="A9" s="1" t="s"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" s="19">
         <v>44125.000000000000</v>
@@ -2677,10 +2739,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E10" s="22">
         <v>44125.000000000000</v>
@@ -2701,10 +2763,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="22">
         <v>44125.000000000000</v>
@@ -2725,10 +2787,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" s="22">
         <v>44125.000000000000</v>
@@ -2749,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E13" s="22">
         <v>44125.000000000000</v>
@@ -2773,10 +2835,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E14" s="22">
         <v>44125.000000000000</v>
@@ -2794,13 +2856,13 @@
     <row r="15">
       <c r="A15" s="1" t="s"/>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E15" s="19">
         <v>44125.000000000000</v>
@@ -2819,10 +2881,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E16" s="22">
         <v>44125.000000000000</v>
@@ -2843,10 +2905,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E17" s="22">
         <v>44125.000000000000</v>
@@ -2864,13 +2926,13 @@
     <row r="18">
       <c r="A18" s="1" t="s"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" s="19">
         <v>44125.000000000000</v>
@@ -2889,10 +2951,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E19" s="22">
         <v>44125.000000000000</v>
@@ -2913,10 +2975,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E20" s="22">
         <v>44125.000000000000</v>
@@ -2937,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E21" s="22">
         <v>44125.000000000000</v>
@@ -2961,10 +3023,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E22" s="22">
         <v>44125.000000000000</v>
@@ -2982,13 +3044,13 @@
     <row r="23">
       <c r="A23" s="1" t="s"/>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E23" s="19">
         <v>44125.000000000000</v>
@@ -3004,7 +3066,7 @@
     <row r="24">
       <c r="A24" s="1" t="s"/>
       <c r="B24" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
